--- a/Sprint1/Pila de sprint.xlsx
+++ b/Sprint1/Pila de sprint.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="132">
   <si>
     <t xml:space="preserve">PROYECTO:</t>
   </si>
@@ -112,39 +112,45 @@
     <t xml:space="preserve">Libro Modelo de Casos de Uso</t>
   </si>
   <si>
+    <t xml:space="preserve">Hecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboración de Diagrama de Casos de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5: Alta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantilla de diagrama de casos de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de casos de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboración de Documento de Casos de uso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantilla de especificación de casos de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento de especificación de casos de uso</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pendiente</t>
   </si>
   <si>
-    <t xml:space="preserve">Análisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboración de Diagrama de Casos de uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5: Alta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantilla de diagrama de casos de uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagrama de casos de uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaboración de Documento de Casos de uso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantilla de especificación de casos de uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento de especificación de casos de uso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elaboración Mockups</t>
   </si>
   <si>
     <t xml:space="preserve">Mockups</t>
   </si>
   <si>
+    <t xml:space="preserve">En curso</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reunión Scrum</t>
   </si>
   <si>
@@ -383,9 +389,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gestión (entregas, capacitación orientada al desarrollo, reuniones adicionals)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En curso</t>
   </si>
   <si>
     <t xml:space="preserve">Planificación</t>
@@ -498,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -605,13 +608,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -633,13 +629,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
@@ -656,7 +645,7 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -670,6 +659,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -797,6 +793,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,11 +805,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,54 +817,50 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -901,24 +893,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1028,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1263,14 +1259,16 @@
       </c>
       <c r="M8" s="23" t="n">
         <f aca="false">L8-SUM(N8:Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="N8" s="24"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="26"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="n">
         <v>2</v>
       </c>
@@ -1309,36 +1307,38 @@
       </c>
       <c r="M9" s="23" t="n">
         <f aca="false">L9-SUM(N9:Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="34" t="n">
+      <c r="D10" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="21" t="n">
@@ -1347,32 +1347,34 @@
       <c r="J10" s="21" t="n">
         <v>43600</v>
       </c>
-      <c r="K10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="33" t="n">
+      <c r="K10" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="32" t="n">
         <v>12</v>
       </c>
       <c r="M10" s="23" t="n">
         <f aca="false">L10-SUM(N10:Q10)</f>
         <v>12</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
+      <c r="N10" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="40" t="n">
+      <c r="C11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="38" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -1382,8 +1384,8 @@
         <v>28</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="H11" s="41" t="s">
-        <v>40</v>
+      <c r="H11" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="I11" s="21" t="n">
         <v>43598</v>
@@ -1392,31 +1394,33 @@
         <v>43600</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="31" t="n">
+        <v>42</v>
+      </c>
+      <c r="L11" s="30" t="n">
         <v>7</v>
       </c>
       <c r="M11" s="23" t="n">
         <f aca="false">L11-SUM(N11:Q11)</f>
-        <v>7</v>
-      </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -1425,42 +1429,42 @@
       <c r="F12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="42" t="n">
+      <c r="G12" s="38"/>
+      <c r="H12" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="41" t="n">
         <v>43599</v>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="41" t="n">
         <v>43599</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="31" t="n">
+        <v>39</v>
+      </c>
+      <c r="L12" s="30" t="n">
         <v>0.4</v>
       </c>
       <c r="M12" s="23" t="n">
         <f aca="false">L12-SUM(N12:Q12)</f>
         <v>0.4</v>
       </c>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="40" t="n">
+      <c r="C13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="38" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -1469,30 +1473,30 @@
       <c r="F13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="43" t="n">
+      <c r="G13" s="38"/>
+      <c r="H13" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="42" t="n">
         <v>43600</v>
       </c>
-      <c r="J13" s="44" t="n">
+      <c r="J13" s="43" t="n">
         <v>43600</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="31" t="n">
+        <v>39</v>
+      </c>
+      <c r="L13" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M13" s="23" t="n">
         <f aca="false">L13-SUM(N13:Q13)</f>
         <v>5</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="n">
@@ -1501,627 +1505,627 @@
       <c r="B14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="40" t="n">
+      <c r="C14" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="38" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="43" t="n">
+      <c r="G14" s="38"/>
+      <c r="H14" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="42" t="n">
         <v>43601</v>
       </c>
-      <c r="J14" s="43" t="n">
+      <c r="J14" s="42" t="n">
         <v>43601</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="31" t="n">
+        <v>39</v>
+      </c>
+      <c r="L14" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M14" s="23" t="n">
         <f aca="false">L14-SUM(N14:Q14)</f>
         <v>5</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="40" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="43" t="n">
+      <c r="G15" s="38"/>
+      <c r="H15" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="42" t="n">
         <v>43602</v>
       </c>
-      <c r="J15" s="43" t="n">
+      <c r="J15" s="42" t="n">
         <v>43602</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="31" t="n">
+        <v>39</v>
+      </c>
+      <c r="L15" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M15" s="23" t="n">
         <f aca="false">L15-SUM(N15:Q15)</f>
         <v>5</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="n">
+      <c r="A16" s="45" t="n">
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="46" t="s">
+      <c r="F16" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="47" t="n">
+      <c r="G16" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="46" t="n">
         <v>43602</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>43602</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="46" t="n">
+        <v>39</v>
+      </c>
+      <c r="L16" s="45" t="n">
         <v>3</v>
       </c>
       <c r="M16" s="23" t="n">
         <f aca="false">L16-SUM(N16:Q16)</f>
         <v>3</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="40" t="s">
+      <c r="C17" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="44" t="n">
+      <c r="F17" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="43" t="n">
         <v>43606</v>
       </c>
-      <c r="J17" s="44" t="n">
+      <c r="J17" s="43" t="n">
         <v>43606</v>
       </c>
-      <c r="K17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="31" t="n">
+      <c r="K17" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="30" t="n">
         <v>1</v>
       </c>
       <c r="M17" s="23" t="n">
         <f aca="false">L17-SUM(N17:Q17)</f>
         <v>1</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="32"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="40" t="n">
+      <c r="B18" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="44" t="n">
+      <c r="F18" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="43" t="n">
         <v>43606</v>
       </c>
-      <c r="J18" s="44" t="n">
+      <c r="J18" s="43" t="n">
         <v>43607</v>
       </c>
-      <c r="K18" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="31" t="n">
+      <c r="K18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M18" s="23" t="n">
         <f aca="false">L18-SUM(N18:Q18)</f>
         <v>5</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="40" t="n">
+      <c r="B19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="38" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="44" t="n">
+      <c r="F19" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="43" t="n">
         <v>43607</v>
       </c>
-      <c r="J19" s="44" t="n">
+      <c r="J19" s="43" t="n">
         <v>43608</v>
       </c>
-      <c r="K19" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="31" t="n">
+      <c r="K19" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M19" s="23" t="n">
         <f aca="false">L19-SUM(N19:Q19)</f>
         <v>5</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="40" t="n">
+      <c r="B20" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="38" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="44" t="n">
+      <c r="F20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="43" t="n">
         <v>43608</v>
       </c>
-      <c r="J20" s="44" t="n">
+      <c r="J20" s="43" t="n">
         <v>43609</v>
       </c>
-      <c r="K20" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="31" t="n">
+      <c r="K20" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M20" s="23" t="n">
         <f aca="false">L20-SUM(N20:Q20)</f>
         <v>5</v>
       </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="40" t="n">
+      <c r="B21" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="38" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="44" t="n">
+      <c r="E21" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="43" t="n">
         <v>43609</v>
       </c>
-      <c r="J21" s="44" t="n">
+      <c r="J21" s="43" t="n">
         <v>43610</v>
       </c>
-      <c r="K21" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="31" t="n">
+      <c r="K21" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="30" t="n">
         <v>3</v>
       </c>
       <c r="M21" s="23" t="n">
         <f aca="false">L21-SUM(N21:Q21)</f>
         <v>3</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50" t="n">
+      <c r="A22" s="49" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41" t="s">
+      <c r="C22" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="44" t="n">
+      <c r="D22" s="38"/>
+      <c r="E22" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="43" t="n">
         <v>43612</v>
       </c>
-      <c r="J22" s="44" t="n">
+      <c r="J22" s="43" t="n">
         <v>43613</v>
       </c>
-      <c r="K22" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="31" t="n">
+      <c r="K22" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="30" t="n">
         <v>10</v>
       </c>
       <c r="M22" s="23" t="n">
         <f aca="false">L22-SUM(N22:Q22)</f>
         <v>10</v>
       </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50"/>
-      <c r="B23" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="40" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="43" t="n">
+      <c r="G23" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="42" t="n">
         <v>43613</v>
       </c>
-      <c r="J23" s="43" t="n">
+      <c r="J23" s="42" t="n">
         <v>43614</v>
       </c>
-      <c r="K23" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="31" t="n">
+      <c r="K23" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M23" s="23" t="n">
         <f aca="false">L23-SUM(N23:Q23)</f>
         <v>5</v>
       </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50"/>
-      <c r="B24" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="40" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="43" t="n">
+        <v>43613</v>
+      </c>
+      <c r="J24" s="43" t="n">
+        <v>43615</v>
+      </c>
+      <c r="K24" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F24" s="40" t="s">
+      <c r="L24" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="49"/>
+      <c r="B25" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="44" t="n">
+      <c r="C25" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="43" t="n">
         <v>43613</v>
       </c>
-      <c r="J24" s="44" t="n">
-        <v>43615</v>
-      </c>
-      <c r="K24" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="31" t="n">
-        <v>15</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50"/>
-      <c r="B25" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="44" t="n">
+      <c r="J25" s="43" t="n">
         <v>43613</v>
       </c>
-      <c r="J25" s="44" t="n">
-        <v>43613</v>
-      </c>
-      <c r="K25" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="31" t="n">
+      <c r="K25" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="30" t="n">
         <v>2</v>
       </c>
       <c r="M25" s="23" t="n">
         <f aca="false">L25-SUM(N25:Q25)</f>
         <v>2</v>
       </c>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="32"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50"/>
-      <c r="B26" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="41" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="44" t="n">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="43" t="n">
         <v>43614</v>
       </c>
-      <c r="J26" s="44" t="n">
+      <c r="J26" s="43" t="n">
         <v>43614</v>
       </c>
-      <c r="K26" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="31" t="n">
+      <c r="K26" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M26" s="23" t="n">
         <f aca="false">L26-SUM(N26:Q26)</f>
         <v>5</v>
       </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50"/>
-      <c r="B27" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40" t="n">
+      <c r="A27" s="49"/>
+      <c r="B27" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="F27" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="44" t="n">
+      <c r="F27" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="43" t="n">
         <v>43614</v>
       </c>
-      <c r="J27" s="44" t="n">
+      <c r="J27" s="43" t="n">
         <v>43615</v>
       </c>
-      <c r="K27" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" s="31" t="n">
+      <c r="K27" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="30" t="n">
         <v>2</v>
       </c>
       <c r="M27" s="23" t="n">
         <f aca="false">L27-SUM(N27:Q27)</f>
         <v>2</v>
       </c>
-      <c r="N27" s="30"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="32"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="53" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="44" t="n">
+      <c r="D28" s="51"/>
+      <c r="E28" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="43" t="n">
         <v>43615</v>
       </c>
-      <c r="J28" s="54" t="n">
+      <c r="J28" s="53" t="n">
         <v>43615</v>
       </c>
-      <c r="K28" s="53" t="s">
-        <v>72</v>
+      <c r="K28" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="L28" s="25" t="n">
         <v>2</v>
@@ -2130,31 +2134,31 @@
         <f aca="false">L28-SUM(N28:Q28)</f>
         <v>2</v>
       </c>
-      <c r="N28" s="24"/>
+      <c r="N28" s="54"/>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46"/>
-      <c r="B29" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="40" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>89</v>
+      <c r="H29" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="I29" s="55" t="n">
         <v>43616</v>
@@ -2162,38 +2166,38 @@
       <c r="J29" s="55" t="n">
         <v>43616</v>
       </c>
-      <c r="K29" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="31" t="n">
+      <c r="K29" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="30" t="n">
         <v>3</v>
       </c>
       <c r="M29" s="56"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46"/>
-      <c r="B30" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="40" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="38" t="s">
         <v>92</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="I30" s="55" t="n">
         <v>43616</v>
@@ -2201,38 +2205,38 @@
       <c r="J30" s="55" t="n">
         <v>43616</v>
       </c>
-      <c r="K30" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="31" t="n">
+      <c r="K30" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="30" t="n">
         <v>5</v>
       </c>
       <c r="M30" s="56"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46"/>
-      <c r="B31" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="40" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>95</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="I31" s="55" t="n">
         <v>43616</v>
@@ -2240,38 +2244,38 @@
       <c r="J31" s="55" t="n">
         <v>43616</v>
       </c>
-      <c r="K31" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" s="31" t="n">
+      <c r="K31" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="30" t="n">
         <v>2</v>
       </c>
       <c r="M31" s="56"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46"/>
-      <c r="B32" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40" t="n">
+      <c r="A32" s="45"/>
+      <c r="B32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="F32" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>98</v>
+      <c r="F32" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="I32" s="55" t="n">
         <v>43617</v>
@@ -2279,36 +2283,36 @@
       <c r="J32" s="55" t="n">
         <v>43617</v>
       </c>
-      <c r="K32" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="31" t="n">
+      <c r="K32" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="30" t="n">
         <v>3</v>
       </c>
       <c r="M32" s="56"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46"/>
-      <c r="B33" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40" t="n">
+      <c r="A33" s="45"/>
+      <c r="B33" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40" t="s">
-        <v>102</v>
+      <c r="F33" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="I33" s="55" t="n">
         <v>43616</v>
@@ -2316,38 +2320,38 @@
       <c r="J33" s="55" t="n">
         <v>43616</v>
       </c>
-      <c r="K33" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L33" s="31" t="n">
+      <c r="K33" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="30" t="n">
         <v>3</v>
       </c>
       <c r="M33" s="56"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46"/>
-      <c r="B34" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40" t="n">
+      <c r="A34" s="45"/>
+      <c r="B34" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F34" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>105</v>
+      <c r="F34" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="I34" s="55" t="n">
         <v>43616</v>
@@ -2355,36 +2359,36 @@
       <c r="J34" s="55" t="n">
         <v>43616</v>
       </c>
-      <c r="K34" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="31" t="n">
+      <c r="K34" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="30" t="n">
         <v>2</v>
       </c>
       <c r="M34" s="56"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46"/>
-      <c r="B35" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40" t="n">
+      <c r="A35" s="45"/>
+      <c r="B35" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F35" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40" t="s">
-        <v>107</v>
+      <c r="F35" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="I35" s="55" t="n">
         <v>43617</v>
@@ -2392,38 +2396,38 @@
       <c r="J35" s="55" t="n">
         <v>43617</v>
       </c>
-      <c r="K35" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="31" t="n">
+      <c r="K35" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="30" t="n">
         <v>3</v>
       </c>
       <c r="M35" s="56"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="48"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="F36" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>110</v>
+      <c r="F36" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="I36" s="55" t="n">
         <v>43617</v>
@@ -2432,36 +2436,36 @@
         <v>43617</v>
       </c>
       <c r="K36" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="L36" s="31" t="n">
+        <v>74</v>
+      </c>
+      <c r="L36" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="48"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="57"/>
       <c r="E37" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="31"/>
+      <c r="F37" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="30"/>
       <c r="I37" s="58" t="n">
         <v>43619</v>
       </c>
@@ -2469,16 +2473,16 @@
         <v>43619</v>
       </c>
       <c r="K37" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="L37" s="31" t="n">
+        <v>74</v>
+      </c>
+      <c r="L37" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="59"/>
@@ -2499,345 +2503,345 @@
       <c r="Q38" s="59"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="48"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" s="57"/>
       <c r="E39" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="F39" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31" t="s">
-        <v>114</v>
+      <c r="F39" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30" t="s">
+        <v>116</v>
       </c>
       <c r="I39" s="58"/>
       <c r="J39" s="57"/>
       <c r="K39" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="48"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="57"/>
       <c r="C40" s="57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="48"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="57"/>
       <c r="C41" s="57" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
       <c r="J41" s="57"/>
       <c r="K41" s="57"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="48"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="61"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="61"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="48"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="61"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="61"/>
       <c r="K43" s="8"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="48"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="61"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
       <c r="J44" s="61"/>
       <c r="K44" s="8"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="48"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
       <c r="J45" s="61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
+        <v>48</v>
+      </c>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
       <c r="K46" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
+        <v>42</v>
+      </c>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="47"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
+        <v>124</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
+        <v>125</v>
+      </c>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
+        <v>127</v>
+      </c>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
       <c r="K48" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
+        <v>128</v>
+      </c>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
+        <v>129</v>
+      </c>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
       <c r="C51" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Sprint1/Pila de sprint.xlsx
+++ b/Sprint1/Pila de sprint.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21705"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_274C3D3502CAFE68600D7B05583FD0ABE9F9ED64" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Dropbox\EscenariosDeportivos\Sprint1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="133">
   <si>
     <t>PROYECTO:</t>
   </si>
@@ -419,16 +423,22 @@
   </si>
   <si>
     <t>Implantación</t>
+  </si>
+  <si>
+    <t>atrazado</t>
+  </si>
+  <si>
+    <t>Sebastián Sanchez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -804,21 +814,6 @@
   </cellStyleXfs>
   <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -979,6 +974,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,1849 +1371,1855 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="14.140625"/>
     <col min="4" max="4" width="15.28515625"/>
     <col min="5" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="8" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="5">
         <v>43595</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="11" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="13" t="s">
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="60"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="42.75" customHeight="1">
-      <c r="A8" s="16">
+    <row r="8" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="16">
         <v>43595</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="16">
         <v>43597</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="12">
         <v>4</v>
       </c>
-      <c r="M8" s="23">
-        <f>L8-SUM(N8:Q8)</f>
+      <c r="M8" s="18">
+        <f t="shared" ref="M8:M23" si="0">L8-SUM(N8:Q8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="19">
         <v>4</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="1:17" ht="71.25">
-      <c r="A9" s="27">
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="16">
         <v>43598</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="16">
         <v>43600</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="23">
         <v>4</v>
       </c>
-      <c r="M9" s="23">
-        <f>L9-SUM(N9:Q9)</f>
+      <c r="M9" s="18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="19">
         <v>3</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="31"/>
-    </row>
-    <row r="10" spans="1:17" ht="85.5">
-      <c r="A10" s="16">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="16">
         <v>43598</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="16">
         <v>43600</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="32">
+      <c r="K10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="27">
         <v>12</v>
       </c>
-      <c r="M10" s="23">
-        <f>L10-SUM(N10:Q10)</f>
+      <c r="M10" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="19">
+        <v>5</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="16">
+        <v>43598</v>
+      </c>
+      <c r="J11" s="16">
+        <v>43600</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="25">
+        <v>7</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N11" s="34">
+        <v>8</v>
+      </c>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="12" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="35">
+        <v>43599</v>
+      </c>
+      <c r="J12" s="35">
+        <v>43599</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>6</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="32">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="36">
+        <v>43600</v>
+      </c>
+      <c r="J13" s="37">
+        <v>43600</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="25">
+        <v>5</v>
+      </c>
+      <c r="M13" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N13" s="34">
+        <v>2</v>
+      </c>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>7</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="32">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="36">
+        <v>43601</v>
+      </c>
+      <c r="J14" s="36">
+        <v>43601</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="25">
+        <v>5</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="34">
+        <v>3</v>
+      </c>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+    </row>
+    <row r="15" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>8</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="32">
+        <v>3</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="36">
+        <v>43602</v>
+      </c>
+      <c r="J15" s="36">
+        <v>43602</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="25">
+        <v>5</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="34">
+        <v>3</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+    </row>
+    <row r="16" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="39">
         <v>9</v>
       </c>
-      <c r="N10" s="24">
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="40">
+        <v>43602</v>
+      </c>
+      <c r="J16" s="5">
+        <v>43602</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="39">
         <v>3</v>
       </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="36"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="27">
-        <v>4</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="37">
+      <c r="M16" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+    </row>
+    <row r="17" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>10</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="37">
+        <v>43606</v>
+      </c>
+      <c r="J17" s="37">
+        <v>43606</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="25">
         <v>1</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="M17" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="34"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>11</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="32">
+        <v>8</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="21">
-        <v>43598</v>
-      </c>
-      <c r="J11" s="21">
-        <v>43600</v>
-      </c>
-      <c r="K11" s="22" t="s">
+      <c r="F18" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="37">
+        <v>43606</v>
+      </c>
+      <c r="J18" s="37">
+        <v>43607</v>
+      </c>
+      <c r="K18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="30">
-        <v>7</v>
-      </c>
-      <c r="M11" s="23">
-        <f>L11-SUM(N11:Q11)</f>
+      <c r="L18" s="25">
+        <v>5</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="34"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>12</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="32">
+        <v>11</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="37">
+        <v>43607</v>
+      </c>
+      <c r="J19" s="37">
+        <v>43608</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="25">
+        <v>5</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="26"/>
+    </row>
+    <row r="20" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>13</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="32">
+        <v>12</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="37">
+        <v>43608</v>
+      </c>
+      <c r="J20" s="37">
+        <v>43609</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="25">
+        <v>5</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
+    </row>
+    <row r="21" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>14</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="32">
+        <v>13</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="37">
+        <v>43609</v>
+      </c>
+      <c r="J21" s="37">
+        <v>43610</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="25">
+        <v>3</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N21" s="34"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
+    </row>
+    <row r="22" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="43">
+        <v>15</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32">
+        <v>5</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="37">
+        <v>43612</v>
+      </c>
+      <c r="J22" s="37">
+        <v>43613</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="25">
+        <v>10</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N22" s="34"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
+    </row>
+    <row r="23" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32">
+        <v>5</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="36">
+        <v>43613</v>
+      </c>
+      <c r="J23" s="36">
+        <v>43614</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="25">
+        <v>5</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N23" s="34"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="1:17" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32">
+        <v>5</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="37">
+        <v>43613</v>
+      </c>
+      <c r="J24" s="37">
+        <v>43615</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="25">
+        <v>15</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
+    </row>
+    <row r="25" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
+      <c r="B25" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32">
+        <v>5</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="37">
+        <v>43613</v>
+      </c>
+      <c r="J25" s="37">
+        <v>43613</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="25">
         <v>2</v>
       </c>
-      <c r="N11" s="39">
-        <v>5</v>
-      </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="16">
-        <v>5</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="40">
-        <v>43599</v>
-      </c>
-      <c r="J12" s="40">
-        <v>43599</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="23">
-        <f>L12-SUM(N12:Q12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="31"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="16">
-        <v>6</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="37">
-        <v>2</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="41">
-        <v>43600</v>
-      </c>
-      <c r="J13" s="42">
-        <v>43600</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="30">
-        <v>5</v>
-      </c>
-      <c r="M13" s="23">
-        <f>L13-SUM(N13:Q13)</f>
-        <v>5</v>
-      </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="27">
-        <v>7</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="37">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="41">
-        <v>43601</v>
-      </c>
-      <c r="J14" s="41">
-        <v>43601</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="30">
-        <v>5</v>
-      </c>
-      <c r="M14" s="23">
-        <f>L14-SUM(N14:Q14)</f>
-        <v>5</v>
-      </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="16">
-        <v>8</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="37">
-        <v>3</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="41">
-        <v>43602</v>
-      </c>
-      <c r="J15" s="41">
-        <v>43602</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="30">
-        <v>5</v>
-      </c>
-      <c r="M15" s="23">
-        <f>L15-SUM(N15:Q15)</f>
-        <v>5</v>
-      </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="44">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="45">
-        <v>43602</v>
-      </c>
-      <c r="J16" s="10">
-        <v>43602</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="44">
-        <v>3</v>
-      </c>
-      <c r="M16" s="23">
-        <f>L16-SUM(N16:Q16)</f>
-        <v>3</v>
-      </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="27">
-        <v>10</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="42">
-        <v>43606</v>
-      </c>
-      <c r="J17" s="42">
-        <v>43606</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="30">
-        <v>1</v>
-      </c>
-      <c r="M17" s="23">
-        <f>L17-SUM(N17:Q17)</f>
-        <v>1</v>
-      </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="27">
-        <v>11</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="37">
-        <v>8</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="42">
-        <v>43606</v>
-      </c>
-      <c r="J18" s="42">
-        <v>43607</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="30">
-        <v>5</v>
-      </c>
-      <c r="M18" s="23">
-        <f>L18-SUM(N18:Q18)</f>
-        <v>5</v>
-      </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="31"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="16">
-        <v>12</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="37">
-        <v>11</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="42">
-        <v>43607</v>
-      </c>
-      <c r="J19" s="42">
-        <v>43608</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="30">
-        <v>5</v>
-      </c>
-      <c r="M19" s="23">
-        <f>L19-SUM(N19:Q19)</f>
-        <v>5</v>
-      </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="27">
-        <v>13</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="37">
-        <v>12</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="42">
-        <v>43608</v>
-      </c>
-      <c r="J20" s="42">
-        <v>43609</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="30">
-        <v>5</v>
-      </c>
-      <c r="M20" s="23">
-        <f>L20-SUM(N20:Q20)</f>
-        <v>5</v>
-      </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="16">
-        <v>14</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="37">
-        <v>13</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="42">
-        <v>43609</v>
-      </c>
-      <c r="J21" s="42">
-        <v>43610</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="30">
-        <v>3</v>
-      </c>
-      <c r="M21" s="23">
-        <f>L21-SUM(N21:Q21)</f>
-        <v>3</v>
-      </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="48">
-        <v>15</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37">
-        <v>5</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="42">
-        <v>43612</v>
-      </c>
-      <c r="J22" s="42">
-        <v>43613</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="30">
-        <v>10</v>
-      </c>
-      <c r="M22" s="23">
-        <f>L22-SUM(N22:Q22)</f>
-        <v>10</v>
-      </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="1:17" ht="55.15">
-      <c r="A23" s="48"/>
-      <c r="B23" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37">
-        <v>5</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="41">
-        <v>43613</v>
-      </c>
-      <c r="J23" s="41">
-        <v>43614</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="30">
-        <v>5</v>
-      </c>
-      <c r="M23" s="23">
-        <f>L23-SUM(N23:Q23)</f>
-        <v>5</v>
-      </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-    </row>
-    <row r="24" spans="1:17" ht="108.95">
-      <c r="A24" s="48"/>
-      <c r="B24" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37">
-        <v>5</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="42">
-        <v>43613</v>
-      </c>
-      <c r="J24" s="42">
-        <v>43615</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="30">
-        <v>15</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="48"/>
-      <c r="B25" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37">
-        <v>5</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="42">
-        <v>43613</v>
-      </c>
-      <c r="J25" s="42">
-        <v>43613</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="30">
-        <v>2</v>
-      </c>
-      <c r="M25" s="23">
+      <c r="M25" s="18">
         <f>L25-SUM(N25:Q25)</f>
         <v>2</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="31"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="48"/>
-      <c r="B26" s="37" t="s">
+      <c r="N25" s="34"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
+    </row>
+    <row r="26" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32">
         <v>5</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="37">
         <v>43614</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="37">
         <v>43614</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="25">
         <v>5</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="18">
         <f>L26-SUM(N26:Q26)</f>
         <v>5</v>
       </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="31"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="48"/>
-      <c r="B27" s="37" t="s">
+      <c r="N26" s="34"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
+    </row>
+    <row r="27" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
+      <c r="B27" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32">
         <v>4</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="37">
         <v>43614</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="37">
         <v>43615</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K27" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="25">
         <v>2</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="18">
         <f>L27-SUM(N27:Q27)</f>
         <v>2</v>
       </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50" t="s">
+      <c r="N27" s="34"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+    </row>
+    <row r="28" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A28" s="44"/>
+      <c r="B28" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45">
         <v>5</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H28" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="37">
         <v>43615</v>
       </c>
-      <c r="J28" s="52">
+      <c r="J28" s="47">
         <v>43615</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="20">
         <v>2</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="18">
         <f>L28-SUM(N28:Q28)</f>
         <v>2</v>
       </c>
-      <c r="N28" s="53"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="26"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="44"/>
-      <c r="B29" s="37" t="s">
+      <c r="N28" s="48"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A29" s="39"/>
+      <c r="B29" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32">
         <v>4</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I29" s="49">
         <v>43616</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="49">
         <v>43616</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="25">
         <v>3</v>
       </c>
-      <c r="M29" s="55"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="44"/>
-      <c r="B30" s="37" t="s">
+      <c r="M29" s="50"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+    </row>
+    <row r="30" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="39"/>
+      <c r="B30" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32">
         <v>5</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I30" s="49">
         <v>43616</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="49">
         <v>43616</v>
       </c>
-      <c r="K30" s="37" t="s">
+      <c r="K30" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="25">
         <v>5</v>
       </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="44"/>
-      <c r="B31" s="37" t="s">
+      <c r="M30" s="50"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+    </row>
+    <row r="31" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="39"/>
+      <c r="B31" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32">
         <v>5</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="54">
+      <c r="I31" s="49">
         <v>43616</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="49">
         <v>43616</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="25">
         <v>2</v>
       </c>
-      <c r="M31" s="55"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="44"/>
-      <c r="B32" s="37" t="s">
+      <c r="M31" s="50"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+    </row>
+    <row r="32" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A32" s="39"/>
+      <c r="B32" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32">
         <v>4</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="54">
+      <c r="I32" s="49">
         <v>43617</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="49">
         <v>43617</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="25">
         <v>3</v>
       </c>
-      <c r="M32" s="55"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="44"/>
-      <c r="B33" s="37" t="s">
+      <c r="M32" s="50"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+    </row>
+    <row r="33" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32">
         <v>4</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37" t="s">
+      <c r="G33" s="32"/>
+      <c r="H33" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="54">
+      <c r="I33" s="49">
         <v>43616</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="49">
         <v>43616</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="25">
         <v>3</v>
       </c>
-      <c r="M33" s="55"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="44"/>
-      <c r="B34" s="37" t="s">
+      <c r="M33" s="50"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+    </row>
+    <row r="34" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="39"/>
+      <c r="B34" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32">
         <v>3</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="54">
+      <c r="I34" s="49">
         <v>43616</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="49">
         <v>43616</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="K34" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="25">
         <v>2</v>
       </c>
-      <c r="M34" s="55"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="44"/>
-      <c r="B35" s="37" t="s">
+      <c r="M34" s="50"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+    </row>
+    <row r="35" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32">
         <v>3</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37" t="s">
+      <c r="G35" s="32"/>
+      <c r="H35" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="I35" s="54">
+      <c r="I35" s="49">
         <v>43617</v>
       </c>
-      <c r="J35" s="54">
+      <c r="J35" s="49">
         <v>43617</v>
       </c>
-      <c r="K35" s="37" t="s">
+      <c r="K35" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="25">
         <v>3</v>
       </c>
-      <c r="M35" s="55"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="46"/>
-      <c r="B36" s="56" t="s">
+      <c r="M35" s="50"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+    </row>
+    <row r="36" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="41"/>
+      <c r="B36" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51">
         <v>3</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="54">
+      <c r="I36" s="49">
         <v>43617</v>
       </c>
-      <c r="J36" s="54">
+      <c r="J36" s="49">
         <v>43617</v>
       </c>
-      <c r="K36" s="56" t="s">
+      <c r="K36" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="25">
         <v>2</v>
       </c>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="46"/>
-      <c r="B37" s="56" t="s">
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+    </row>
+    <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="41"/>
+      <c r="B37" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51">
         <v>3</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="57">
+      <c r="H37" s="25"/>
+      <c r="I37" s="52">
         <v>43619</v>
       </c>
-      <c r="J37" s="57">
+      <c r="J37" s="52">
         <v>43619</v>
       </c>
-      <c r="K37" s="56" t="s">
+      <c r="K37" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="25">
         <v>2</v>
       </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="46"/>
-      <c r="B39" s="56" t="s">
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+    </row>
+    <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+    </row>
+    <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="41"/>
+      <c r="B39" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51">
         <v>3</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30" t="s">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56" t="s">
+      <c r="I39" s="52"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="46"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56" t="s">
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+    </row>
+    <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="41"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="46"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56" t="s">
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+    </row>
+    <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="46"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="46"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="46"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="46"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="60" t="s">
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+    </row>
+    <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="41"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+    </row>
+    <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="41"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+    </row>
+    <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="41"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+    </row>
+    <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="60" t="s">
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="46"/>
-      <c r="B46" s="60" t="s">
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+    </row>
+    <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
+      <c r="B46" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="12" t="s">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="12" t="s">
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+    </row>
+    <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="12" t="s">
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="12" t="s">
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+    </row>
+    <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="12" t="s">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="12" t="s">
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+    </row>
+    <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="12" t="s">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+    </row>
+    <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="12" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+    </row>
+    <row r="51" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="12" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+    </row>
+    <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="12" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+    </row>
+    <row r="53" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Sprint1/Pila de sprint.xlsx
+++ b/Sprint1/Pila de sprint.xlsx
@@ -194,9 +194,6 @@
     <t>Desarrollo de plan de pruebas</t>
   </si>
   <si>
-    <t>Sebastian Marin</t>
-  </si>
-  <si>
     <t>Requerimientos del software</t>
   </si>
   <si>
@@ -429,6 +426,9 @@
   </si>
   <si>
     <t>Sebastián Sanchez</t>
+  </si>
+  <si>
+    <t>Sebastian sanches</t>
   </si>
 </sst>
 </file>
@@ -975,6 +975,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -983,12 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1386,10 +1386,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1497,66 +1497,66 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
     </row>
     <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1959,13 +1959,13 @@
         <v>33</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>55</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>56</v>
       </c>
       <c r="I16" s="40">
         <v>43602</v>
@@ -1974,7 +1974,7 @@
         <v>43602</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L16" s="39">
         <v>3</v>
@@ -2037,10 +2037,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>58</v>
       </c>
       <c r="D18" s="32">
         <v>8</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="37">
         <v>43606</v>
@@ -2062,16 +2062,18 @@
         <v>43607</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L18" s="25">
         <v>5</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N18" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="34">
+        <v>3</v>
+      </c>
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="26"/>
@@ -2081,10 +2083,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="32">
         <v>11</v>
@@ -2097,7 +2099,7 @@
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="37">
         <v>43607</v>
@@ -2106,16 +2108,18 @@
         <v>43608</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L19" s="25">
         <v>5</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N19" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="N19" s="34">
+        <v>2</v>
+      </c>
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="26"/>
@@ -2125,10 +2129,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="32">
         <v>12</v>
@@ -2141,7 +2145,7 @@
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="37">
         <v>43608</v>
@@ -2150,16 +2154,18 @@
         <v>43609</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L20" s="25">
         <v>5</v>
       </c>
       <c r="M20" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N20" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="34">
+        <v>2</v>
+      </c>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
       <c r="Q20" s="26"/>
@@ -2169,10 +2175,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="32">
         <v>13</v>
@@ -2185,7 +2191,7 @@
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="37">
         <v>43609</v>
@@ -2194,16 +2200,18 @@
         <v>43610</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L21" s="25">
         <v>3</v>
       </c>
       <c r="M21" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N21" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="N21" s="34">
+        <v>1</v>
+      </c>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="26"/>
@@ -2213,21 +2221,21 @@
         <v>15</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32">
         <v>5</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="37">
         <v>43612</v>
@@ -2236,7 +2244,7 @@
         <v>43613</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="L22" s="25">
         <v>10</v>
@@ -2253,23 +2261,23 @@
     <row r="23" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="43"/>
       <c r="B23" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32">
         <v>5</v>
       </c>
       <c r="F23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="H23" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="I23" s="36">
         <v>43613</v>
@@ -2278,7 +2286,7 @@
         <v>43614</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L23" s="25">
         <v>5</v>
@@ -2295,21 +2303,21 @@
     <row r="24" spans="1:17" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A24" s="43"/>
       <c r="B24" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32">
         <v>5</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="37">
         <v>43613</v>
@@ -2318,7 +2326,7 @@
         <v>43615</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L24" s="25">
         <v>15</v>
@@ -2329,26 +2337,26 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" s="43"/>
       <c r="B25" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32">
         <v>5</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="33" t="s">
         <v>79</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="I25" s="37">
         <v>43613</v>
@@ -2357,7 +2365,7 @@
         <v>43613</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="L25" s="25">
         <v>2</v>
@@ -2374,23 +2382,23 @@
     <row r="26" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A26" s="43"/>
       <c r="B26" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32">
         <v>5</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>83</v>
       </c>
       <c r="I26" s="37">
         <v>43614</v>
@@ -2399,7 +2407,7 @@
         <v>43614</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L26" s="25">
         <v>5</v>
@@ -2416,23 +2424,23 @@
     <row r="27" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="43"/>
       <c r="B27" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32">
         <v>4</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="I27" s="37">
         <v>43614</v>
@@ -2441,7 +2449,7 @@
         <v>43615</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L27" s="25">
         <v>2</v>
@@ -2458,23 +2466,23 @@
     <row r="28" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A28" s="44"/>
       <c r="B28" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="45">
         <v>5</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="46" t="s">
         <v>88</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>89</v>
       </c>
       <c r="I28" s="37">
         <v>43615</v>
@@ -2483,7 +2491,7 @@
         <v>43615</v>
       </c>
       <c r="K28" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L28" s="20">
         <v>2</v>
@@ -2500,23 +2508,23 @@
     <row r="29" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32">
         <v>4</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="49">
         <v>43616</v>
@@ -2525,7 +2533,7 @@
         <v>43616</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="25">
         <v>3</v>
@@ -2539,23 +2547,23 @@
     <row r="30" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32">
         <v>5</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="32" t="s">
         <v>93</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>94</v>
       </c>
       <c r="I30" s="49">
         <v>43616</v>
@@ -2564,7 +2572,7 @@
         <v>43616</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L30" s="25">
         <v>5</v>
@@ -2578,23 +2586,23 @@
     <row r="31" spans="1:17" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32">
         <v>5</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="32" t="s">
         <v>96</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>97</v>
       </c>
       <c r="I31" s="49">
         <v>43616</v>
@@ -2603,7 +2611,7 @@
         <v>43616</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L31" s="25">
         <v>2</v>
@@ -2617,23 +2625,23 @@
     <row r="32" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32">
         <v>4</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="I32" s="49">
         <v>43617</v>
@@ -2642,7 +2650,7 @@
         <v>43617</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L32" s="25">
         <v>3</v>
@@ -2656,21 +2664,21 @@
     <row r="33" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>101</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>102</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="32">
         <v>4</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="49">
         <v>43616</v>
@@ -2679,7 +2687,7 @@
         <v>43616</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L33" s="25">
         <v>3</v>
@@ -2693,23 +2701,23 @@
     <row r="34" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32">
         <v>3</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>107</v>
       </c>
       <c r="I34" s="49">
         <v>43616</v>
@@ -2718,7 +2726,7 @@
         <v>43616</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L34" s="25">
         <v>2</v>
@@ -2732,21 +2740,21 @@
     <row r="35" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="32">
         <v>3</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="49">
         <v>43617</v>
@@ -2755,7 +2763,7 @@
         <v>43617</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="25">
         <v>3</v>
@@ -2769,23 +2777,23 @@
     <row r="36" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="51">
         <v>3</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="I36" s="49">
         <v>43617</v>
@@ -2794,7 +2802,7 @@
         <v>43617</v>
       </c>
       <c r="K36" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L36" s="25">
         <v>2</v>
@@ -2808,20 +2816,20 @@
     <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="51"/>
       <c r="E37" s="51">
         <v>3</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="52">
@@ -2831,7 +2839,7 @@
         <v>43619</v>
       </c>
       <c r="K37" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L37" s="25">
         <v>2</v>
@@ -2863,26 +2871,26 @@
     <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
       <c r="B39" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="54" t="s">
         <v>114</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>115</v>
       </c>
       <c r="D39" s="51"/>
       <c r="E39" s="51">
         <v>3</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="52"/>
       <c r="J39" s="51"/>
       <c r="K39" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
@@ -2895,7 +2903,7 @@
       <c r="A40" s="41"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="51"/>
       <c r="E40" s="51"/>
@@ -2916,7 +2924,7 @@
       <c r="A41" s="41"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="51"/>
       <c r="E41" s="51"/>
@@ -2995,7 +3003,7 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>33</v>
@@ -3005,7 +3013,7 @@
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
       <c r="J45" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>42</v>
@@ -3020,10 +3028,10 @@
     <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="41"/>
       <c r="B46" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="7" t="s">
@@ -3048,11 +3056,11 @@
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
@@ -3073,11 +3081,11 @@
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
@@ -3085,7 +3093,7 @@
       <c r="I48" s="41"/>
       <c r="J48" s="41"/>
       <c r="K48" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L48" s="41"/>
       <c r="M48" s="41"/>
@@ -3102,7 +3110,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
@@ -3121,7 +3129,7 @@
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="41"/>
@@ -3142,7 +3150,7 @@
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="41"/>
@@ -3184,7 +3192,7 @@
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="41"/>
@@ -3203,21 +3211,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:Q6"/>
   </mergeCells>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
